--- a/оцінки.xlsx
+++ b/оцінки.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t xml:space="preserve">Хмарні засоби </t>
   </si>
@@ -38,9 +38,6 @@
     <t>Цифрова обробка</t>
   </si>
   <si>
-    <t>Якість та таестування ПЗ</t>
-  </si>
-  <si>
     <t>ДВВС</t>
   </si>
   <si>
@@ -90,12 +87,45 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>Модуль 2 і курс</t>
+  </si>
+  <si>
+    <t>проект гури 1</t>
+  </si>
+  <si>
+    <t>проект гури 2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Модуль 1 і курс          '+</t>
+  </si>
+  <si>
+    <t>Якість та тестування ПЗ</t>
+  </si>
+  <si>
+    <t>є</t>
+  </si>
+  <si>
+    <t>немає</t>
+  </si>
+  <si>
+    <t>проєкт</t>
+  </si>
+  <si>
+    <t>переробити</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₴&quot;_-;\-* #,##0.00\ &quot;₴&quot;_-;_-* &quot;-&quot;??\ &quot;₴&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,14 +181,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
@@ -440,176 +538,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -617,16 +797,22 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
